--- a/FINAL_PROJECT/SIEM_GANTT.xlsx
+++ b/FINAL_PROJECT/SIEM_GANTT.xlsx
@@ -68,17 +68,6 @@
     <t xml:space="preserve">Son sürümün üretim ortamına aktarılması , canlı ortamda son testlerin ve doğrulamaların yapılması. </t>
   </si>
   <si>
-    <t>Güvenlik izleme ve kontrol sistemlerinin geliştirilmesi ve sisteme entegre edilmesi:                                                  - Veri Kaçakları Önleme Sistemi
-- Ağ İzleme ve Performans Analizi
-- Risk Analiz Yönetim Sistemi
-- Kayıt Toplama ve Kolerasyon Sistemi 
-- Log Analizi</t>
-  </si>
-  <si>
-    <t>Saldırı tespit ve engelleme altyapısı oluşturma. Aşağıdaki bileşenlerin geliştirilmesi ve sisteme entegre edilmesi:                                                                                                            - Saldırı Tespit ve Engelleme Sistemi (STS)                                                                        - Sıfır Gün Zararlı Yazılım Tespit Sistemi
-- Zafiyet Tarama Sistemleri</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mevcut durum analizinin yapılması, gereksinimlerin ve sisteme entegre edilecek uygulamaların belirlenmesi. </t>
   </si>
   <si>
@@ -86,6 +75,17 @@
   </si>
   <si>
     <t>Risk analizi ve değerlendirilmesinin yapılması, yedekleme ve kurtarma planlarının yapılması.</t>
+  </si>
+  <si>
+    <t>Saldırı tespit ve engelleme altyapısı oluşturma. Aşağıdaki bileşenlerin geliştirilmesi ve sisteme entegre edilmesi:                                                                                                            - Saldırı Tespit ve Engelleme Sistemi (STS)                                                                                   - Sıfır Gün Zararlı Yazılım Tespit Sistemi
+- Zafiyet Tarama Sistemleri</t>
+  </si>
+  <si>
+    <t>Güvenlik izleme ve kontrol sistemlerinin geliştirilmesi ve sisteme entegre edilmesi:                                                                                                                                                       - Veri Kaçakları Önleme Sistemi
+- Ağ İzleme ve Performans Analizi
+- Risk Analiz Yönetim Sistemi
+- Kayıt Toplama ve Kolerasyon Sistemi 
+- Log Analizi</t>
   </si>
 </sst>
 </file>
@@ -255,6 +255,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -280,15 +289,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -611,8 +611,8 @@
   </sheetPr>
   <dimension ref="B2:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20:P22"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,78 +626,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="12" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="2:25" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
       <c r="N4" s="1">
         <v>1</v>
       </c>
@@ -739,16 +739,16 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -769,14 +769,14 @@
     </row>
     <row r="6" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -795,14 +795,14 @@
     </row>
     <row r="7" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -823,16 +823,16 @@
       <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -853,14 +853,14 @@
     </row>
     <row r="9" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -879,14 +879,14 @@
     </row>
     <row r="10" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -907,16 +907,16 @@
       <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -939,14 +939,14 @@
     </row>
     <row r="12" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -965,14 +965,14 @@
     </row>
     <row r="13" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -993,16 +993,16 @@
       <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1023,14 +1023,14 @@
     </row>
     <row r="15" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1049,14 +1049,14 @@
     </row>
     <row r="16" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1077,16 +1077,16 @@
       <c r="B17" s="2">
         <v>5</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1109,14 +1109,14 @@
     </row>
     <row r="18" spans="2:25" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1135,14 +1135,14 @@
     </row>
     <row r="19" spans="2:25" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1163,16 +1163,16 @@
       <c r="B20" s="2">
         <v>6</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1195,14 +1195,14 @@
     </row>
     <row r="21" spans="2:25" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1221,14 +1221,14 @@
     </row>
     <row r="22" spans="2:25" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1249,16 +1249,16 @@
       <c r="B23" s="2">
         <v>7</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1281,14 +1281,14 @@
     </row>
     <row r="24" spans="2:25" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1307,14 +1307,14 @@
     </row>
     <row r="25" spans="2:25" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1335,16 +1335,16 @@
       <c r="B26" s="2">
         <v>8</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1367,14 +1367,14 @@
     </row>
     <row r="27" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1393,14 +1393,14 @@
     </row>
     <row r="28" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1417,20 +1417,20 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="2:25" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:25" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>9</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1451,16 +1451,16 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="2:25" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:25" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -1477,16 +1477,16 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="2:25" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:25" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1507,16 +1507,16 @@
       <c r="B32" s="2">
         <v>10</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="5"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="8"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -1537,14 +1537,14 @@
     </row>
     <row r="33" spans="2:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -1563,14 +1563,14 @@
     </row>
     <row r="34" spans="2:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -1591,16 +1591,16 @@
       <c r="B35" s="2">
         <v>11</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="5"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="8"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -1621,14 +1621,14 @@
     </row>
     <row r="36" spans="2:25" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -1647,14 +1647,14 @@
     </row>
     <row r="37" spans="2:25" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -1682,127 +1682,30 @@
     <row r="46" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="169">
-    <mergeCell ref="W29:W31"/>
-    <mergeCell ref="X29:X31"/>
-    <mergeCell ref="Y29:Y31"/>
-    <mergeCell ref="Q29:Q31"/>
-    <mergeCell ref="R29:R31"/>
-    <mergeCell ref="S29:S31"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="U29:U31"/>
-    <mergeCell ref="V29:V31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:J31"/>
-    <mergeCell ref="K29:M31"/>
-    <mergeCell ref="N29:N31"/>
-    <mergeCell ref="O29:O31"/>
-    <mergeCell ref="P29:P31"/>
-    <mergeCell ref="T26:T28"/>
-    <mergeCell ref="U26:U28"/>
-    <mergeCell ref="V26:V28"/>
-    <mergeCell ref="K26:M28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:J28"/>
-    <mergeCell ref="W26:W28"/>
-    <mergeCell ref="X26:X28"/>
-    <mergeCell ref="Y26:Y28"/>
-    <mergeCell ref="N26:N28"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="P26:P28"/>
-    <mergeCell ref="Q26:Q28"/>
-    <mergeCell ref="R26:R28"/>
-    <mergeCell ref="S26:S28"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="U23:U25"/>
-    <mergeCell ref="V23:V25"/>
-    <mergeCell ref="W23:W25"/>
-    <mergeCell ref="X23:X25"/>
-    <mergeCell ref="Y23:Y25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="Q23:Q25"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="T20:T22"/>
-    <mergeCell ref="U20:U22"/>
-    <mergeCell ref="V20:V22"/>
-    <mergeCell ref="W20:W22"/>
-    <mergeCell ref="X20:X22"/>
-    <mergeCell ref="Y20:Y22"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="O20:O22"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="R20:R22"/>
-    <mergeCell ref="S20:S22"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="U17:U19"/>
-    <mergeCell ref="V17:V19"/>
-    <mergeCell ref="W17:W19"/>
-    <mergeCell ref="X17:X19"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="U14:U16"/>
-    <mergeCell ref="V14:V16"/>
-    <mergeCell ref="W14:W16"/>
-    <mergeCell ref="X14:X16"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="P14:P16"/>
-    <mergeCell ref="Q14:Q16"/>
-    <mergeCell ref="R14:R16"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="U8:U10"/>
-    <mergeCell ref="V8:V10"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="T8:T10"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="C20:J22"/>
-    <mergeCell ref="C23:J25"/>
-    <mergeCell ref="K5:M7"/>
-    <mergeCell ref="K8:M10"/>
-    <mergeCell ref="K11:M13"/>
-    <mergeCell ref="K14:M16"/>
-    <mergeCell ref="K17:M19"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="T32:T34"/>
+    <mergeCell ref="U32:U34"/>
+    <mergeCell ref="V32:V34"/>
+    <mergeCell ref="W32:W34"/>
+    <mergeCell ref="X32:X34"/>
+    <mergeCell ref="Y32:Y34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:J37"/>
+    <mergeCell ref="K35:M37"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="O35:O37"/>
+    <mergeCell ref="P35:P37"/>
+    <mergeCell ref="Q35:Q37"/>
+    <mergeCell ref="R35:R37"/>
+    <mergeCell ref="S35:S37"/>
+    <mergeCell ref="T35:T37"/>
+    <mergeCell ref="U35:U37"/>
+    <mergeCell ref="V35:V37"/>
+    <mergeCell ref="W35:W37"/>
+    <mergeCell ref="X35:X37"/>
+    <mergeCell ref="Y35:Y37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:J34"/>
+    <mergeCell ref="K32:M34"/>
     <mergeCell ref="N32:N34"/>
     <mergeCell ref="O32:O34"/>
     <mergeCell ref="P32:P34"/>
@@ -1827,30 +1730,127 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C17:J19"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="U32:U34"/>
-    <mergeCell ref="V32:V34"/>
-    <mergeCell ref="W32:W34"/>
-    <mergeCell ref="X32:X34"/>
-    <mergeCell ref="Y32:Y34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:J37"/>
-    <mergeCell ref="K35:M37"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="O35:O37"/>
-    <mergeCell ref="P35:P37"/>
-    <mergeCell ref="Q35:Q37"/>
-    <mergeCell ref="R35:R37"/>
-    <mergeCell ref="S35:S37"/>
-    <mergeCell ref="T35:T37"/>
-    <mergeCell ref="U35:U37"/>
-    <mergeCell ref="V35:V37"/>
-    <mergeCell ref="W35:W37"/>
-    <mergeCell ref="X35:X37"/>
-    <mergeCell ref="Y35:Y37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:J34"/>
-    <mergeCell ref="K32:M34"/>
+    <mergeCell ref="C20:J22"/>
+    <mergeCell ref="C23:J25"/>
+    <mergeCell ref="K5:M7"/>
+    <mergeCell ref="K8:M10"/>
+    <mergeCell ref="K11:M13"/>
+    <mergeCell ref="K14:M16"/>
+    <mergeCell ref="K17:M19"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="T8:T10"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="V8:V10"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="P14:P16"/>
+    <mergeCell ref="Q14:Q16"/>
+    <mergeCell ref="R14:R16"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="U14:U16"/>
+    <mergeCell ref="V14:V16"/>
+    <mergeCell ref="W14:W16"/>
+    <mergeCell ref="X14:X16"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="V17:V19"/>
+    <mergeCell ref="W17:W19"/>
+    <mergeCell ref="X17:X19"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="T20:T22"/>
+    <mergeCell ref="U20:U22"/>
+    <mergeCell ref="V20:V22"/>
+    <mergeCell ref="W20:W22"/>
+    <mergeCell ref="X20:X22"/>
+    <mergeCell ref="Y20:Y22"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="R20:R22"/>
+    <mergeCell ref="S20:S22"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="U23:U25"/>
+    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="W23:W25"/>
+    <mergeCell ref="X23:X25"/>
+    <mergeCell ref="Y23:Y25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="W26:W28"/>
+    <mergeCell ref="X26:X28"/>
+    <mergeCell ref="Y26:Y28"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="P26:P28"/>
+    <mergeCell ref="Q26:Q28"/>
+    <mergeCell ref="R26:R28"/>
+    <mergeCell ref="S26:S28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:J31"/>
+    <mergeCell ref="K29:M31"/>
+    <mergeCell ref="N29:N31"/>
+    <mergeCell ref="O29:O31"/>
+    <mergeCell ref="P29:P31"/>
+    <mergeCell ref="T26:T28"/>
+    <mergeCell ref="U26:U28"/>
+    <mergeCell ref="V26:V28"/>
+    <mergeCell ref="K26:M28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:J28"/>
+    <mergeCell ref="W29:W31"/>
+    <mergeCell ref="X29:X31"/>
+    <mergeCell ref="Y29:Y31"/>
+    <mergeCell ref="Q29:Q31"/>
+    <mergeCell ref="R29:R31"/>
+    <mergeCell ref="S29:S31"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="U29:U31"/>
+    <mergeCell ref="V29:V31"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>

--- a/FINAL_PROJECT/SIEM_GANTT.xlsx
+++ b/FINAL_PROJECT/SIEM_GANTT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merve\Documents\GitHub\SIEM_Project\FINAL_PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siyaksares/Developer/GitHub/SIEM_Project/FINAL_PROJECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C6D5F9-67BB-8F4C-82E1-45AC5D1BA69C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="744" windowWidth="30240" windowHeight="18900"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -77,21 +78,23 @@
     <t>Risk analizi ve değerlendirilmesinin yapılması, yedekleme ve kurtarma planlarının yapılması.</t>
   </si>
   <si>
-    <t>Saldırı tespit ve engelleme altyapısı oluşturma. Aşağıdaki bileşenlerin geliştirilmesi ve sisteme entegre edilmesi:                                                                                                            - Saldırı Tespit ve Engelleme Sistemi (STS)                                                                                   - Sıfır Gün Zararlı Yazılım Tespit Sistemi
-- Zafiyet Tarama Sistemleri</t>
-  </si>
-  <si>
     <t>Güvenlik izleme ve kontrol sistemlerinin geliştirilmesi ve sisteme entegre edilmesi:                                                                                                                                                       - Veri Kaçakları Önleme Sistemi
 - Ağ İzleme ve Performans Analizi
 - Risk Analiz Yönetim Sistemi
 - Kayıt Toplama ve Kolerasyon Sistemi 
 - Log Analizi</t>
   </si>
+  <si>
+    <t>Saldırı tespit ve engelleme altyapısı oluşturma. Aşağıdaki bileşenlerin geliştirilmesi ve sisteme entegre edilmesi:
+- Saldırı Tespit ve Engelleme Sistemi (STS)
+- Sıfır Gün Zararlı Yazılım Tespit Sistemi
+- Zafiyet Tarama Sistemleri</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,15 +258,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -291,10 +285,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Çıkış" xfId="1" builtinId="21"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -605,99 +608,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD31"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="4.109375" customWidth="1"/>
-    <col min="8" max="9" width="8.77734375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" customWidth="1"/>
-    <col min="13" max="13" width="3.44140625" customWidth="1"/>
-    <col min="14" max="25" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" customWidth="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1"/>
+    <col min="14" max="25" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="5" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-    </row>
-    <row r="4" spans="2:25" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+    </row>
+    <row r="4" spans="2:25" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="1">
         <v>1</v>
       </c>
@@ -735,20 +738,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -767,16 +770,16 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -793,16 +796,16 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -819,20 +822,20 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -851,16 +854,16 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -877,16 +880,16 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -903,20 +906,20 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -937,16 +940,16 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -963,16 +966,16 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -989,20 +992,20 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1021,16 +1024,16 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1047,16 +1050,16 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1073,20 +1076,20 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="2:25" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:25" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>5</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1107,16 +1110,16 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="2:25" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:25" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1133,16 +1136,16 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="2:25" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:25" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1159,20 +1162,20 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="2:25" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:25" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>6</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1193,16 +1196,16 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="2:25" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:25" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1219,16 +1222,16 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="2:25" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:25" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1245,20 +1248,20 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="2:25" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:25" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>7</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1279,16 +1282,16 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="2:25" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:25" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1305,16 +1308,16 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="2:25" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:25" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1331,20 +1334,20 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>8</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="C26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1365,16 +1368,16 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1391,16 +1394,16 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1417,20 +1420,20 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="2:25" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:25" ht="34.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>9</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="C29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1451,16 +1454,16 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="2:25" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:25" ht="34.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -1477,16 +1480,16 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="2:25" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:25" ht="34.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1503,20 +1506,20 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="2:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:25" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>10</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -1535,16 +1538,16 @@
       </c>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="2:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:25" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="11"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="8"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -1561,16 +1564,16 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
     </row>
-    <row r="34" spans="2:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:25" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="11"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -1587,20 +1590,20 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
     </row>
-    <row r="35" spans="2:25" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>11</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -1619,16 +1622,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:25" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="11"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="8"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -1645,16 +1648,16 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
     </row>
-    <row r="37" spans="2:25" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="14"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="11"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -1671,17 +1674,162 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
     </row>
-    <row r="38" spans="2:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:25" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:25" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:25" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:25" ht="19.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:25" ht="19.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:25" ht="19.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:25" ht="10.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:25" ht="10.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:25" ht="10.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="169">
+    <mergeCell ref="W29:W31"/>
+    <mergeCell ref="X29:X31"/>
+    <mergeCell ref="Y29:Y31"/>
+    <mergeCell ref="Q29:Q31"/>
+    <mergeCell ref="R29:R31"/>
+    <mergeCell ref="S29:S31"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="U29:U31"/>
+    <mergeCell ref="V29:V31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:J31"/>
+    <mergeCell ref="K29:M31"/>
+    <mergeCell ref="N29:N31"/>
+    <mergeCell ref="O29:O31"/>
+    <mergeCell ref="P29:P31"/>
+    <mergeCell ref="T26:T28"/>
+    <mergeCell ref="U26:U28"/>
+    <mergeCell ref="V26:V28"/>
+    <mergeCell ref="K26:M28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:J28"/>
+    <mergeCell ref="W26:W28"/>
+    <mergeCell ref="X26:X28"/>
+    <mergeCell ref="Y26:Y28"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="P26:P28"/>
+    <mergeCell ref="Q26:Q28"/>
+    <mergeCell ref="R26:R28"/>
+    <mergeCell ref="S26:S28"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="U23:U25"/>
+    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="W23:W25"/>
+    <mergeCell ref="X23:X25"/>
+    <mergeCell ref="Y23:Y25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="T20:T22"/>
+    <mergeCell ref="U20:U22"/>
+    <mergeCell ref="V20:V22"/>
+    <mergeCell ref="W20:W22"/>
+    <mergeCell ref="X20:X22"/>
+    <mergeCell ref="Y20:Y22"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="R20:R22"/>
+    <mergeCell ref="S20:S22"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="V17:V19"/>
+    <mergeCell ref="W17:W19"/>
+    <mergeCell ref="X17:X19"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="U14:U16"/>
+    <mergeCell ref="V14:V16"/>
+    <mergeCell ref="W14:W16"/>
+    <mergeCell ref="X14:X16"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="P14:P16"/>
+    <mergeCell ref="Q14:Q16"/>
+    <mergeCell ref="R14:R16"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="V8:V10"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="T8:T10"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="C20:J22"/>
+    <mergeCell ref="C23:J25"/>
+    <mergeCell ref="K5:M7"/>
+    <mergeCell ref="K8:M10"/>
+    <mergeCell ref="K11:M13"/>
+    <mergeCell ref="K14:M16"/>
+    <mergeCell ref="K17:M19"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="N32:N34"/>
+    <mergeCell ref="O32:O34"/>
+    <mergeCell ref="P32:P34"/>
+    <mergeCell ref="Q32:Q34"/>
+    <mergeCell ref="R32:R34"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="K20:M22"/>
+    <mergeCell ref="K23:M25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:J4"/>
+    <mergeCell ref="K2:M4"/>
+    <mergeCell ref="N2:Y3"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C5:J7"/>
+    <mergeCell ref="C8:J10"/>
+    <mergeCell ref="C11:J13"/>
+    <mergeCell ref="C14:J16"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C17:J19"/>
     <mergeCell ref="T32:T34"/>
     <mergeCell ref="U32:U34"/>
     <mergeCell ref="V32:V34"/>
@@ -1706,151 +1854,6 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:J34"/>
     <mergeCell ref="K32:M34"/>
-    <mergeCell ref="N32:N34"/>
-    <mergeCell ref="O32:O34"/>
-    <mergeCell ref="P32:P34"/>
-    <mergeCell ref="Q32:Q34"/>
-    <mergeCell ref="R32:R34"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="K20:M22"/>
-    <mergeCell ref="K23:M25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:J4"/>
-    <mergeCell ref="K2:M4"/>
-    <mergeCell ref="N2:Y3"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C5:J7"/>
-    <mergeCell ref="C8:J10"/>
-    <mergeCell ref="C11:J13"/>
-    <mergeCell ref="C14:J16"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C17:J19"/>
-    <mergeCell ref="C20:J22"/>
-    <mergeCell ref="C23:J25"/>
-    <mergeCell ref="K5:M7"/>
-    <mergeCell ref="K8:M10"/>
-    <mergeCell ref="K11:M13"/>
-    <mergeCell ref="K14:M16"/>
-    <mergeCell ref="K17:M19"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="T8:T10"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="U8:U10"/>
-    <mergeCell ref="V8:V10"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="P14:P16"/>
-    <mergeCell ref="Q14:Q16"/>
-    <mergeCell ref="R14:R16"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="U14:U16"/>
-    <mergeCell ref="V14:V16"/>
-    <mergeCell ref="W14:W16"/>
-    <mergeCell ref="X14:X16"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="U17:U19"/>
-    <mergeCell ref="V17:V19"/>
-    <mergeCell ref="W17:W19"/>
-    <mergeCell ref="X17:X19"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="T20:T22"/>
-    <mergeCell ref="U20:U22"/>
-    <mergeCell ref="V20:V22"/>
-    <mergeCell ref="W20:W22"/>
-    <mergeCell ref="X20:X22"/>
-    <mergeCell ref="Y20:Y22"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="O20:O22"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="R20:R22"/>
-    <mergeCell ref="S20:S22"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="U23:U25"/>
-    <mergeCell ref="V23:V25"/>
-    <mergeCell ref="W23:W25"/>
-    <mergeCell ref="X23:X25"/>
-    <mergeCell ref="Y23:Y25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="Q23:Q25"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="W26:W28"/>
-    <mergeCell ref="X26:X28"/>
-    <mergeCell ref="Y26:Y28"/>
-    <mergeCell ref="N26:N28"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="P26:P28"/>
-    <mergeCell ref="Q26:Q28"/>
-    <mergeCell ref="R26:R28"/>
-    <mergeCell ref="S26:S28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:J31"/>
-    <mergeCell ref="K29:M31"/>
-    <mergeCell ref="N29:N31"/>
-    <mergeCell ref="O29:O31"/>
-    <mergeCell ref="P29:P31"/>
-    <mergeCell ref="T26:T28"/>
-    <mergeCell ref="U26:U28"/>
-    <mergeCell ref="V26:V28"/>
-    <mergeCell ref="K26:M28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:J28"/>
-    <mergeCell ref="W29:W31"/>
-    <mergeCell ref="X29:X31"/>
-    <mergeCell ref="Y29:Y31"/>
-    <mergeCell ref="Q29:Q31"/>
-    <mergeCell ref="R29:R31"/>
-    <mergeCell ref="S29:S31"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="U29:U31"/>
-    <mergeCell ref="V29:V31"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
